--- a/test_dataset_results.xlsx
+++ b/test_dataset_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpecializedTranslation\第二学期\CompLing\Aria\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68115C73-4569-46BC-8C77-0CDFE18BAA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4AE748-6B3C-45B1-BB3F-8CA3B9D4907A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="740" windowWidth="11470" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9030" yWindow="980" windowWidth="11470" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,138 @@
   </si>
   <si>
     <t>tlr9</t>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean 3-gram ldia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean 3-gram svd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean 3-gram tfidf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel='rbf',C=1000,class_weight=weight,gamma=0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fasttext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(epoch,lr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, 0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25, 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4fa</t>
+  </si>
+  <si>
+    <t>3fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1svm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2svm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3svm</t>
+  </si>
+  <si>
+    <t>4svm</t>
+  </si>
+  <si>
+    <t>5svm</t>
+  </si>
+  <si>
+    <t>6svm</t>
+  </si>
+  <si>
+    <t>7svm</t>
+  </si>
+  <si>
+    <t>8svm</t>
+  </si>
+  <si>
+    <t>9svm</t>
   </si>
 </sst>
 </file>
@@ -186,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,20 +326,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,319 +646,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="2"/>
-    <col min="4" max="4" width="10.75" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="13" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" style="3"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>34.729999999999997</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.35</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>33.47</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.33</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>23.43</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>35.15</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>0.35</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>32.64</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>0.33</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>30.54</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>0.31</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>38.08</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>0.38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>35.15</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>0.36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>22.59</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>0.23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>43.1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>0.41</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>33.049999999999997</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>0.31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>26.36</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>0.22</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>43.1</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>0.42</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>34.729999999999997</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>0.34</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>30.96</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>43.93</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>0.43</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>36.4</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>0.37</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>28.03</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>0.25</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="E24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="E26" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="E28" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B24:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_dataset_results.xlsx
+++ b/test_dataset_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpecializedTranslation\第二学期\CompLing\Aria\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4AE748-6B3C-45B1-BB3F-8CA3B9D4907A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB798E-4AA7-4C00-AD23-64A2E67FCF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="980" windowWidth="11470" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,14 @@
   </si>
   <si>
     <t>9svm</t>
+  </si>
+  <si>
+    <t>3 layers nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -345,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -359,6 +367,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -646,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -661,14 +672,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -976,10 +987,15 @@
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.26</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>60</v>
       </c>
@@ -988,8 +1004,13 @@
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.37</v>
+      </c>
       <c r="E25" s="3" t="s">
         <v>61</v>
       </c>
@@ -998,8 +1019,13 @@
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.42</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>62</v>
       </c>
@@ -1008,8 +1034,13 @@
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.3</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>63</v>
       </c>
@@ -1018,8 +1049,13 @@
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.4</v>
+      </c>
       <c r="E28" s="3" t="s">
         <v>64</v>
       </c>
@@ -1028,8 +1064,13 @@
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.43</v>
+      </c>
       <c r="E29" s="3" t="s">
         <v>65</v>
       </c>
@@ -1038,8 +1079,13 @@
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.22</v>
+      </c>
       <c r="E30" s="3" t="s">
         <v>66</v>
       </c>
@@ -1048,8 +1094,13 @@
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.44</v>
+      </c>
       <c r="E31" s="3" t="s">
         <v>67</v>
       </c>
@@ -1058,8 +1109,13 @@
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.33</v>
+      </c>
       <c r="E32" s="3" t="s">
         <v>68</v>
       </c>
@@ -1164,6 +1220,23 @@
       </c>
       <c r="E38" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/test_dataset_results.xlsx
+++ b/test_dataset_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpecializedTranslation\第二学期\CompLing\Aria\Test Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daimon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB798E-4AA7-4C00-AD23-64A2E67FCF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2BF7A8-BAEF-45CA-A3AF-C53C9681CCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
   <si>
     <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,29 +281,366 @@
     <t>9svm</t>
   </si>
   <si>
-    <t>3 layers nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>First layer neuron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second layer neuron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third layer neuron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confusion matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-gram tfidf (dimensions=3052)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6c</t>
+  </si>
+  <si>
+    <t>7c</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>9c</t>
+  </si>
+  <si>
+    <t>word tfidf (dimensions=4017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three layers neural network</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>Two layes neural network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigram tfidf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clean tfidf</t>
+  </si>
+  <si>
+    <t>4l</t>
+  </si>
+  <si>
+    <t>5l</t>
+  </si>
+  <si>
+    <t>6l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,21 +649,52 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -349,11 +717,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -377,9 +782,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,21 +1107,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
     <col min="2" max="3" width="8.6640625" style="3"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3" customWidth="1"/>
     <col min="5" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -681,7 +1131,7 @@
       </c>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -695,138 +1145,138 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>34.729999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="C3" s="3">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>33.47</v>
+        <v>31.79</v>
       </c>
       <c r="C4" s="3">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>23.43</v>
+        <v>20.5</v>
       </c>
       <c r="C5" s="3">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>35.15</v>
+        <v>36.4</v>
       </c>
       <c r="C6" s="3">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>32.64</v>
+        <v>29.7</v>
       </c>
       <c r="C7" s="3">
-        <v>0.33</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3">
-        <v>30.54</v>
+        <v>24.27</v>
       </c>
       <c r="C8" s="3">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>38.08</v>
+        <v>36.82</v>
       </c>
       <c r="C9" s="3">
-        <v>0.38</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>35.15</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="C10" s="3">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3">
-        <v>22.59</v>
+        <v>23.84</v>
       </c>
       <c r="C11" s="3">
-        <v>0.23</v>
+        <v>0.246</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="2" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,26 +1290,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3">
-        <v>43.1</v>
+        <v>43.93</v>
       </c>
       <c r="C14" s="3">
-        <v>0.41</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="3">
-        <v>33.049999999999997</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="C15" s="3">
         <v>0.31</v>
@@ -868,105 +1318,105 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3">
-        <v>26.36</v>
+        <v>24.26</v>
       </c>
       <c r="C16" s="3">
-        <v>0.22</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>43.1</v>
+        <v>42.26</v>
       </c>
       <c r="C17" s="3">
-        <v>0.42</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="3">
-        <v>34.729999999999997</v>
+        <v>33.47</v>
       </c>
       <c r="C18" s="3">
-        <v>0.34</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="3">
-        <v>30.96</v>
+        <v>27.2</v>
       </c>
       <c r="C19" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>43.93</v>
+        <v>44.76</v>
       </c>
       <c r="C20" s="3">
-        <v>0.43</v>
+        <v>0.439</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3">
-        <v>36.4</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="C21" s="3">
-        <v>0.37</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="3">
-        <v>28.03</v>
+        <v>26.36</v>
       </c>
       <c r="C22" s="3">
-        <v>0.25</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -983,7 +1433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28.05" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1000,7 +1450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28.8">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1015,7 +1465,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1030,7 +1480,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1045,7 +1495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +1540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1137,7 +1587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -1154,7 +1604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1171,7 +1621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -1188,7 +1638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1205,7 +1655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1222,28 +1672,1944 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:9" s="6" customFormat="1" ht="43.2">
+      <c r="A39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="13">
+        <v>96</v>
+      </c>
+      <c r="C40" s="13">
+        <v>32</v>
+      </c>
+      <c r="D40" s="13">
+        <v>96</v>
+      </c>
+      <c r="E40" s="13">
+        <v>3</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="15">
+        <v>41.84</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1.46</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13">
+        <v>128</v>
+      </c>
+      <c r="C41" s="13">
+        <v>96</v>
+      </c>
+      <c r="D41" s="13">
+        <v>256</v>
+      </c>
+      <c r="E41" s="13">
+        <v>3</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="15">
+        <v>41</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1.55</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13">
+        <v>64</v>
+      </c>
+      <c r="C42" s="13">
+        <v>96</v>
+      </c>
+      <c r="D42" s="13">
+        <v>128</v>
+      </c>
+      <c r="E42" s="13">
+        <v>3</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G42" s="15">
+        <v>42.26</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1.52</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="12"/>
+      <c r="B43" s="16">
+        <v>128</v>
+      </c>
+      <c r="C43" s="16">
+        <v>32</v>
+      </c>
+      <c r="D43" s="16">
+        <v>128</v>
+      </c>
+      <c r="E43" s="16">
+        <v>10</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G43" s="15">
+        <v>45.19</v>
+      </c>
+      <c r="H43" s="15">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="12"/>
+      <c r="B44" s="16">
+        <v>96</v>
+      </c>
+      <c r="C44" s="16">
+        <v>64</v>
+      </c>
+      <c r="D44" s="16">
+        <v>128</v>
+      </c>
+      <c r="E44" s="16">
+        <v>3</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="G44" s="15">
+        <v>41</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="12"/>
+      <c r="B45" s="16">
+        <v>96</v>
+      </c>
+      <c r="C45" s="16">
+        <v>64</v>
+      </c>
+      <c r="D45" s="16">
+        <v>128</v>
+      </c>
+      <c r="E45" s="16">
+        <v>6</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G45" s="15">
+        <v>42.68</v>
+      </c>
+      <c r="H45" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="12"/>
+      <c r="B46" s="17">
+        <v>128</v>
+      </c>
+      <c r="C46" s="17">
+        <v>256</v>
+      </c>
+      <c r="D46" s="17">
+        <v>64</v>
+      </c>
+      <c r="E46" s="17">
+        <v>2</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="G46" s="15">
+        <v>39.75</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1.47</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="12"/>
+      <c r="B47" s="17">
+        <v>128</v>
+      </c>
+      <c r="C47" s="17">
+        <v>96</v>
+      </c>
+      <c r="D47" s="17">
+        <v>256</v>
+      </c>
+      <c r="E47" s="17">
+        <v>2</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="G47" s="15">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="12"/>
+      <c r="B48" s="17">
+        <v>96</v>
+      </c>
+      <c r="C48" s="17">
+        <v>96</v>
+      </c>
+      <c r="D48" s="17">
+        <v>96</v>
+      </c>
+      <c r="E48" s="17">
+        <v>4</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G48" s="15">
+        <v>46.02</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1.68</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="13">
+        <v>128</v>
+      </c>
+      <c r="C49" s="13">
+        <v>128</v>
+      </c>
+      <c r="D49" s="13">
+        <v>96</v>
+      </c>
+      <c r="E49" s="13">
+        <v>10</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G49" s="15">
+        <v>39.75</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1.55</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="18"/>
+      <c r="B50" s="13">
+        <v>96</v>
+      </c>
+      <c r="C50" s="13">
+        <v>256</v>
+      </c>
+      <c r="D50" s="13">
+        <v>64</v>
+      </c>
+      <c r="E50" s="13">
+        <v>14</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="G50" s="15">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="18"/>
+      <c r="B51" s="13">
+        <v>96</v>
+      </c>
+      <c r="C51" s="13">
+        <v>96</v>
+      </c>
+      <c r="D51" s="13">
+        <v>96</v>
+      </c>
+      <c r="E51" s="13">
+        <v>10</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G51" s="15">
+        <v>39.33</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1.54</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="18"/>
+      <c r="B52" s="16">
+        <v>128</v>
+      </c>
+      <c r="C52" s="16">
+        <v>96</v>
+      </c>
+      <c r="D52" s="16">
+        <v>64</v>
+      </c>
+      <c r="E52" s="16">
+        <v>7</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0.373</v>
+      </c>
+      <c r="G52" s="15">
+        <v>37.24</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1.52</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="18"/>
+      <c r="B53" s="16">
+        <v>128</v>
+      </c>
+      <c r="C53" s="16">
+        <v>256</v>
+      </c>
+      <c r="D53" s="16">
+        <v>128</v>
+      </c>
+      <c r="E53" s="16">
+        <v>5</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="G53" s="15">
+        <v>41.84</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="18"/>
+      <c r="B54" s="16">
+        <v>64</v>
+      </c>
+      <c r="C54" s="16">
+        <v>256</v>
+      </c>
+      <c r="D54" s="16">
+        <v>64</v>
+      </c>
+      <c r="E54" s="16">
+        <v>12</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G54" s="15">
+        <v>37.24</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1.56</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="18"/>
+      <c r="B55" s="17">
+        <v>128</v>
+      </c>
+      <c r="C55" s="17">
+        <v>64</v>
+      </c>
+      <c r="D55" s="17">
+        <v>32</v>
+      </c>
+      <c r="E55" s="17">
+        <v>8</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="G55" s="15">
+        <v>37.24</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="18"/>
+      <c r="B56" s="17">
+        <v>128</v>
+      </c>
+      <c r="C56" s="17">
+        <v>32</v>
+      </c>
+      <c r="D56" s="17">
+        <v>64</v>
+      </c>
+      <c r="E56" s="17">
+        <v>6</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="G56" s="15">
+        <v>39.75</v>
+      </c>
+      <c r="H56" s="15">
+        <v>1.52</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="18"/>
+      <c r="B57" s="17">
+        <v>128</v>
+      </c>
+      <c r="C57" s="17">
+        <v>32</v>
+      </c>
+      <c r="D57" s="17">
+        <v>64</v>
+      </c>
+      <c r="E57" s="17">
+        <v>5</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="G57" s="15">
+        <v>34.31</v>
+      </c>
+      <c r="H57" s="15">
+        <v>1.54</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="13">
+        <v>128</v>
+      </c>
+      <c r="C58" s="13">
+        <v>96</v>
+      </c>
+      <c r="D58" s="13">
+        <v>96</v>
+      </c>
+      <c r="E58" s="13">
+        <v>7</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G58" s="15">
+        <v>29.71</v>
+      </c>
+      <c r="H58" s="15">
+        <v>1.65</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="18"/>
+      <c r="B59" s="13">
+        <v>96</v>
+      </c>
+      <c r="C59" s="13">
+        <v>256</v>
+      </c>
+      <c r="D59" s="13">
+        <v>64</v>
+      </c>
+      <c r="E59" s="13">
+        <v>8</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G59" s="15">
+        <v>31.8</v>
+      </c>
+      <c r="H59" s="15">
+        <v>1.64</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="18"/>
+      <c r="B60" s="13">
+        <v>128</v>
+      </c>
+      <c r="C60" s="13">
+        <v>64</v>
+      </c>
+      <c r="D60" s="13">
+        <v>96</v>
+      </c>
+      <c r="E60" s="13">
+        <v>13</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G60" s="15">
+        <v>31.8</v>
+      </c>
+      <c r="H60" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="18"/>
+      <c r="B61" s="16">
+        <v>32</v>
+      </c>
+      <c r="C61" s="16">
+        <v>96</v>
+      </c>
+      <c r="D61" s="16">
+        <v>256</v>
+      </c>
+      <c r="E61" s="16">
         <v>1</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F61" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G61" s="15">
+        <v>25.53</v>
+      </c>
+      <c r="H61" s="15">
+        <v>1.68</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="18"/>
+      <c r="B62" s="16">
+        <v>96</v>
+      </c>
+      <c r="C62" s="16">
+        <v>96</v>
+      </c>
+      <c r="D62" s="16">
+        <v>256</v>
+      </c>
+      <c r="E62" s="16">
+        <v>1</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0.192</v>
+      </c>
+      <c r="G62" s="15">
+        <v>28.03</v>
+      </c>
+      <c r="H62" s="15">
+        <v>1.68</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="18"/>
+      <c r="B63" s="16">
+        <v>32</v>
+      </c>
+      <c r="C63" s="16">
+        <v>96</v>
+      </c>
+      <c r="D63" s="16">
+        <v>128</v>
+      </c>
+      <c r="E63" s="16">
+        <v>14</v>
+      </c>
+      <c r="F63" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="G63" s="15">
+        <v>30.12</v>
+      </c>
+      <c r="H63" s="15">
+        <v>1.67</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="18"/>
+      <c r="B64" s="17">
+        <v>128</v>
+      </c>
+      <c r="C64" s="17">
+        <v>64</v>
+      </c>
+      <c r="D64" s="17">
+        <v>256</v>
+      </c>
+      <c r="E64" s="17">
+        <v>11</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="G64" s="15">
+        <v>32.22</v>
+      </c>
+      <c r="H64" s="15">
+        <v>1.67</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="18"/>
+      <c r="B65" s="17">
+        <v>128</v>
+      </c>
+      <c r="C65" s="17">
+        <v>96</v>
+      </c>
+      <c r="D65" s="17">
+        <v>128</v>
+      </c>
+      <c r="E65" s="17">
+        <v>3</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G65" s="15">
+        <v>27.19</v>
+      </c>
+      <c r="H65" s="15">
+        <v>1.65</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="18"/>
+      <c r="B66" s="17">
+        <v>32</v>
+      </c>
+      <c r="C66" s="17">
+        <v>96</v>
+      </c>
+      <c r="D66" s="17">
+        <v>32</v>
+      </c>
+      <c r="E66" s="17">
+        <v>9</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="G66" s="15">
+        <v>25.52</v>
+      </c>
+      <c r="H66" s="15">
+        <v>1.68</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="16">
+        <v>128</v>
+      </c>
+      <c r="C67" s="16">
+        <v>32</v>
+      </c>
+      <c r="D67" s="16">
+        <v>128</v>
+      </c>
+      <c r="E67" s="16">
+        <v>10</v>
+      </c>
+      <c r="F67" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="G67" s="15">
+        <v>42.68</v>
+      </c>
+      <c r="H67" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="19"/>
+      <c r="B68" s="16">
+        <v>96</v>
+      </c>
+      <c r="C68" s="16">
+        <v>64</v>
+      </c>
+      <c r="D68" s="16">
+        <v>128</v>
+      </c>
+      <c r="E68" s="16">
+        <v>3</v>
+      </c>
+      <c r="F68" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G68" s="15">
+        <v>42.04</v>
+      </c>
+      <c r="H68" s="15">
+        <v>1.59</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="19"/>
+      <c r="B69" s="16">
+        <v>96</v>
+      </c>
+      <c r="C69" s="16">
+        <v>64</v>
+      </c>
+      <c r="D69" s="16">
+        <v>128</v>
+      </c>
+      <c r="E69" s="16">
+        <v>6</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G69" s="15">
+        <v>44.77</v>
+      </c>
+      <c r="H69" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="19"/>
+      <c r="B70" s="13">
+        <v>96</v>
+      </c>
+      <c r="C70" s="13">
+        <v>32</v>
+      </c>
+      <c r="D70" s="13">
+        <v>96</v>
+      </c>
+      <c r="E70" s="13">
+        <v>3</v>
+      </c>
+      <c r="F70" s="14">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G70" s="15">
+        <v>41.84</v>
+      </c>
+      <c r="H70" s="15">
+        <v>1.53</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="19"/>
+      <c r="B71" s="13">
+        <v>128</v>
+      </c>
+      <c r="C71" s="13">
+        <v>96</v>
+      </c>
+      <c r="D71" s="13">
+        <v>256</v>
+      </c>
+      <c r="E71" s="13">
+        <v>3</v>
+      </c>
+      <c r="F71" s="14">
+        <v>0.434</v>
+      </c>
+      <c r="G71" s="15">
+        <v>43.51</v>
+      </c>
+      <c r="H71" s="15">
+        <v>1.62</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="19"/>
+      <c r="B72" s="13">
+        <v>64</v>
+      </c>
+      <c r="C72" s="13">
+        <v>96</v>
+      </c>
+      <c r="D72" s="13">
+        <v>128</v>
+      </c>
+      <c r="E72" s="13">
+        <v>3</v>
+      </c>
+      <c r="F72" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G72" s="15">
+        <v>41.84</v>
+      </c>
+      <c r="H72" s="15">
+        <v>1.55</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="16">
+        <v>128</v>
+      </c>
+      <c r="C73" s="16">
+        <v>96</v>
+      </c>
+      <c r="D73" s="16">
+        <v>64</v>
+      </c>
+      <c r="E73" s="16">
+        <v>7</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G73" s="15">
+        <v>35.56</v>
+      </c>
+      <c r="H73" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="19"/>
+      <c r="B74" s="16">
+        <v>128</v>
+      </c>
+      <c r="C74" s="16">
+        <v>256</v>
+      </c>
+      <c r="D74" s="16">
+        <v>128</v>
+      </c>
+      <c r="E74" s="16">
         <v>5</v>
       </c>
+      <c r="F74" s="14">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="G74" s="15">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H74" s="15">
+        <v>1.61</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="19"/>
+      <c r="B75" s="16">
+        <v>64</v>
+      </c>
+      <c r="C75" s="16">
+        <v>256</v>
+      </c>
+      <c r="D75" s="16">
+        <v>64</v>
+      </c>
+      <c r="E75" s="16">
+        <v>12</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G75" s="15">
+        <v>35.15</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="19"/>
+      <c r="B76" s="13">
+        <v>128</v>
+      </c>
+      <c r="C76" s="13">
+        <v>128</v>
+      </c>
+      <c r="D76" s="13">
+        <v>96</v>
+      </c>
+      <c r="E76" s="13">
+        <v>10</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="G76" s="15">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H76" s="15">
+        <v>1.68</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="19"/>
+      <c r="B77" s="13">
+        <v>96</v>
+      </c>
+      <c r="C77" s="13">
+        <v>256</v>
+      </c>
+      <c r="D77" s="13">
+        <v>64</v>
+      </c>
+      <c r="E77" s="13">
+        <v>14</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G77" s="15">
+        <v>36.82</v>
+      </c>
+      <c r="H77" s="15">
+        <v>1.72</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="19"/>
+      <c r="B78" s="13">
+        <v>96</v>
+      </c>
+      <c r="C78" s="13">
+        <v>96</v>
+      </c>
+      <c r="D78" s="13">
+        <v>96</v>
+      </c>
+      <c r="E78" s="13">
+        <v>10</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0.312</v>
+      </c>
+      <c r="G78" s="15">
+        <v>31.79</v>
+      </c>
+      <c r="H78" s="15">
+        <v>1.64</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="16">
+        <v>32</v>
+      </c>
+      <c r="C79" s="16">
+        <v>96</v>
+      </c>
+      <c r="D79" s="16">
+        <v>256</v>
+      </c>
+      <c r="E79" s="16">
+        <v>1</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0.192</v>
+      </c>
+      <c r="G79" s="15">
+        <v>27.61</v>
+      </c>
+      <c r="H79" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="19"/>
+      <c r="B80" s="16">
+        <v>96</v>
+      </c>
+      <c r="C80" s="16">
+        <v>96</v>
+      </c>
+      <c r="D80" s="16">
+        <v>256</v>
+      </c>
+      <c r="E80" s="16">
+        <v>1</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="G80" s="15">
+        <v>27.614999999999998</v>
+      </c>
+      <c r="H80" s="15">
+        <v>1.69</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="19"/>
+      <c r="B81" s="16">
+        <v>32</v>
+      </c>
+      <c r="C81" s="16">
+        <v>96</v>
+      </c>
+      <c r="D81" s="16">
+        <v>128</v>
+      </c>
+      <c r="E81" s="16">
+        <v>14</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G81" s="15">
+        <v>28.03</v>
+      </c>
+      <c r="H81" s="15">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="19"/>
+      <c r="B82" s="13">
+        <v>128</v>
+      </c>
+      <c r="C82" s="13">
+        <v>96</v>
+      </c>
+      <c r="D82" s="13">
+        <v>96</v>
+      </c>
+      <c r="E82" s="13">
+        <v>7</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="G82" s="15">
+        <v>28.03</v>
+      </c>
+      <c r="H82" s="15">
+        <v>1.69</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="19"/>
+      <c r="B83" s="13">
+        <v>96</v>
+      </c>
+      <c r="C83" s="13">
+        <v>256</v>
+      </c>
+      <c r="D83" s="13">
+        <v>64</v>
+      </c>
+      <c r="E83" s="13">
+        <v>8</v>
+      </c>
+      <c r="F83" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G83" s="15">
+        <v>27.614999999999998</v>
+      </c>
+      <c r="H83" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="19"/>
+      <c r="B84" s="13">
+        <v>128</v>
+      </c>
+      <c r="C84" s="13">
+        <v>64</v>
+      </c>
+      <c r="D84" s="13">
+        <v>96</v>
+      </c>
+      <c r="E84" s="13">
+        <v>13</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G84" s="15">
+        <v>23.01</v>
+      </c>
+      <c r="H84" s="15">
+        <v>1.69</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="17">
+        <v>128</v>
+      </c>
+      <c r="C85" s="17">
+        <v>64</v>
+      </c>
+      <c r="D85" s="17">
+        <v>32</v>
+      </c>
+      <c r="E85" s="17">
+        <v>8</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="G85" s="15">
+        <v>38.07</v>
+      </c>
+      <c r="H85" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="20"/>
+      <c r="B86" s="17">
+        <v>128</v>
+      </c>
+      <c r="C86" s="17">
+        <v>32</v>
+      </c>
+      <c r="D86" s="17">
+        <v>64</v>
+      </c>
+      <c r="E86" s="17">
+        <v>6</v>
+      </c>
+      <c r="F86" s="14">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G86" s="15">
+        <v>37.65</v>
+      </c>
+      <c r="H86" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="20"/>
+      <c r="B87" s="17">
+        <v>128</v>
+      </c>
+      <c r="C87" s="17">
+        <v>32</v>
+      </c>
+      <c r="D87" s="17">
+        <v>64</v>
+      </c>
+      <c r="E87" s="17">
+        <v>5</v>
+      </c>
+      <c r="F87" s="14">
+        <v>0.34</v>
+      </c>
+      <c r="G87" s="15">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H87" s="15">
+        <v>1.56</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="20"/>
+      <c r="B88" s="13">
+        <v>128</v>
+      </c>
+      <c r="C88" s="13">
+        <v>128</v>
+      </c>
+      <c r="D88" s="13">
+        <v>96</v>
+      </c>
+      <c r="E88" s="13">
+        <v>10</v>
+      </c>
+      <c r="F88" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="G88" s="15">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="H88" s="15">
+        <v>1.54</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="20"/>
+      <c r="B89" s="13">
+        <v>96</v>
+      </c>
+      <c r="C89" s="13">
+        <v>256</v>
+      </c>
+      <c r="D89" s="13">
+        <v>64</v>
+      </c>
+      <c r="E89" s="13">
+        <v>14</v>
+      </c>
+      <c r="F89" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="G89" s="15">
+        <v>42.67</v>
+      </c>
+      <c r="H89" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="20"/>
+      <c r="B90" s="13">
+        <v>96</v>
+      </c>
+      <c r="C90" s="13">
+        <v>96</v>
+      </c>
+      <c r="D90" s="13">
+        <v>96</v>
+      </c>
+      <c r="E90" s="13">
+        <v>10</v>
+      </c>
+      <c r="F90" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="G90" s="15">
+        <v>38.5</v>
+      </c>
+      <c r="H90" s="15">
+        <v>1.55</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="17">
+        <v>32</v>
+      </c>
+      <c r="C91" s="17">
+        <v>96</v>
+      </c>
+      <c r="D91" s="17">
+        <v>32</v>
+      </c>
+      <c r="E91" s="17">
+        <v>9</v>
+      </c>
+      <c r="F91" s="14">
+        <v>0.19</v>
+      </c>
+      <c r="G91" s="15">
+        <v>23.85</v>
+      </c>
+      <c r="H91" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="20"/>
+      <c r="B92" s="17">
+        <v>128</v>
+      </c>
+      <c r="C92" s="17">
+        <v>96</v>
+      </c>
+      <c r="D92" s="17">
+        <v>128</v>
+      </c>
+      <c r="E92" s="17">
+        <v>3</v>
+      </c>
+      <c r="F92" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="G92" s="15">
+        <v>27.2</v>
+      </c>
+      <c r="H92" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="20"/>
+      <c r="B93" s="17">
+        <v>128</v>
+      </c>
+      <c r="C93" s="17">
+        <v>64</v>
+      </c>
+      <c r="D93" s="17">
+        <v>256</v>
+      </c>
+      <c r="E93" s="17">
+        <v>11</v>
+      </c>
+      <c r="F93" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="G93" s="15">
+        <v>25.1</v>
+      </c>
+      <c r="H93" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="20"/>
+      <c r="B94" s="13">
+        <v>128</v>
+      </c>
+      <c r="C94" s="13">
+        <v>96</v>
+      </c>
+      <c r="D94" s="13">
+        <v>96</v>
+      </c>
+      <c r="E94" s="13">
+        <v>7</v>
+      </c>
+      <c r="F94" s="14">
+        <v>0.19</v>
+      </c>
+      <c r="G94" s="15">
+        <v>23</v>
+      </c>
+      <c r="H94" s="15">
+        <v>1.77</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="20"/>
+      <c r="B95" s="13">
+        <v>128</v>
+      </c>
+      <c r="C95" s="13">
+        <v>64</v>
+      </c>
+      <c r="D95" s="13">
+        <v>96</v>
+      </c>
+      <c r="E95" s="13">
+        <v>13</v>
+      </c>
+      <c r="F95" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G95" s="15">
+        <v>18.41</v>
+      </c>
+      <c r="H95" s="15">
+        <v>1.93</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="20"/>
+      <c r="B96" s="13">
+        <v>96</v>
+      </c>
+      <c r="C96" s="13">
+        <v>256</v>
+      </c>
+      <c r="D96" s="13">
+        <v>64</v>
+      </c>
+      <c r="E96" s="13">
+        <v>8</v>
+      </c>
+      <c r="F96" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G96" s="15">
+        <v>18.82</v>
+      </c>
+      <c r="H96" s="15">
+        <v>1.84</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97" s="17">
+        <v>96</v>
+      </c>
+      <c r="C97" s="17">
+        <v>96</v>
+      </c>
+      <c r="D97" s="17">
+        <v>96</v>
+      </c>
+      <c r="E97" s="17">
+        <v>4</v>
+      </c>
+      <c r="F97" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="G97" s="15">
+        <v>43.5</v>
+      </c>
+      <c r="H97" s="15">
+        <v>1.88</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="20"/>
+      <c r="B98" s="17">
+        <v>128</v>
+      </c>
+      <c r="C98" s="17">
+        <v>96</v>
+      </c>
+      <c r="D98" s="17">
+        <v>256</v>
+      </c>
+      <c r="E98" s="17">
+        <v>2</v>
+      </c>
+      <c r="F98" s="14">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G98" s="15">
+        <v>42.67</v>
+      </c>
+      <c r="H98" s="15">
+        <v>1.48</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="20"/>
+      <c r="B99" s="17">
+        <v>128</v>
+      </c>
+      <c r="C99" s="17">
+        <v>256</v>
+      </c>
+      <c r="D99" s="17">
+        <v>64</v>
+      </c>
+      <c r="E99" s="17">
+        <v>2</v>
+      </c>
+      <c r="F99" s="14">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G99" s="15">
+        <v>41.84</v>
+      </c>
+      <c r="H99" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="20"/>
+      <c r="B100" s="13">
+        <v>128</v>
+      </c>
+      <c r="C100" s="13">
+        <v>96</v>
+      </c>
+      <c r="D100" s="13">
+        <v>256</v>
+      </c>
+      <c r="E100" s="13">
+        <v>3</v>
+      </c>
+      <c r="F100" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="G100" s="15">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="H100" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="20"/>
+      <c r="B101" s="13">
+        <v>96</v>
+      </c>
+      <c r="C101" s="13">
+        <v>32</v>
+      </c>
+      <c r="D101" s="13">
+        <v>96</v>
+      </c>
+      <c r="E101" s="13">
+        <v>3</v>
+      </c>
+      <c r="F101" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="G101" s="15">
+        <v>44.77</v>
+      </c>
+      <c r="H101" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="20"/>
+      <c r="B102" s="13">
+        <v>64</v>
+      </c>
+      <c r="C102" s="13">
+        <v>96</v>
+      </c>
+      <c r="D102" s="13">
+        <v>128</v>
+      </c>
+      <c r="E102" s="13">
+        <v>3</v>
+      </c>
+      <c r="F102" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="G102" s="15">
+        <v>42.25</v>
+      </c>
+      <c r="H102" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="43.2">
+      <c r="A103" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="15">
+        <v>32</v>
+      </c>
+      <c r="C104" s="15">
+        <v>96</v>
+      </c>
+      <c r="D104" s="15">
+        <v>4</v>
+      </c>
+      <c r="E104" s="14">
+        <v>43.1</v>
+      </c>
+      <c r="F104" s="15">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1.39</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="22"/>
+      <c r="B105" s="15">
+        <v>16</v>
+      </c>
+      <c r="C105" s="15">
+        <v>64</v>
+      </c>
+      <c r="D105" s="15">
+        <v>6</v>
+      </c>
+      <c r="E105" s="14">
+        <v>43.93</v>
+      </c>
+      <c r="F105" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="G105" s="15">
+        <v>1.42</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="23"/>
+      <c r="B106" s="15">
+        <v>64</v>
+      </c>
+      <c r="C106" s="15">
+        <v>16</v>
+      </c>
+      <c r="D106" s="15">
+        <v>5</v>
+      </c>
+      <c r="E106" s="14">
+        <v>46.86</v>
+      </c>
+      <c r="F106" s="15">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G106" s="15">
+        <v>1.38</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="15">
+        <v>32</v>
+      </c>
+      <c r="C107" s="15">
+        <v>96</v>
+      </c>
+      <c r="D107" s="15">
+        <v>4</v>
+      </c>
+      <c r="E107" s="15">
+        <v>48.11</v>
+      </c>
+      <c r="F107" s="15">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1.41</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="22"/>
+      <c r="B108" s="15">
+        <v>16</v>
+      </c>
+      <c r="C108" s="15">
+        <v>64</v>
+      </c>
+      <c r="D108" s="15">
+        <v>6</v>
+      </c>
+      <c r="E108" s="15">
+        <v>42.68</v>
+      </c>
+      <c r="F108" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="G108" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="23"/>
+      <c r="B109" s="15">
+        <v>64</v>
+      </c>
+      <c r="C109" s="15">
+        <v>16</v>
+      </c>
+      <c r="D109" s="15">
+        <v>5</v>
+      </c>
+      <c r="E109" s="15">
+        <v>43.09</v>
+      </c>
+      <c r="F109" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1.43</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A85:A90"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="B24:B32"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="A49:A57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
